--- a/Code/Results/Cases/Case_2_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.89611544693025</v>
+        <v>11.98080691254106</v>
       </c>
       <c r="C2">
-        <v>6.856897074151915</v>
+        <v>9.227977367057209</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.455391193354341</v>
+        <v>15.47374107811253</v>
       </c>
       <c r="F2">
-        <v>27.58867813875912</v>
+        <v>40.59432522638034</v>
       </c>
       <c r="G2">
-        <v>2.121774423981104</v>
+        <v>3.68166311293257</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.40547859564423</v>
+        <v>27.68757089880922</v>
       </c>
       <c r="J2">
-        <v>6.111876894546522</v>
+        <v>8.703359469589422</v>
       </c>
       <c r="K2">
-        <v>10.63898347824749</v>
+        <v>8.861881177781523</v>
       </c>
       <c r="L2">
-        <v>7.745244373571558</v>
+        <v>12.36240689968064</v>
       </c>
       <c r="M2">
-        <v>10.4548783950197</v>
+        <v>15.43118098463983</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46117503236315</v>
+        <v>27.44555715225936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.03899526928741</v>
+        <v>11.75606587258971</v>
       </c>
       <c r="C3">
-        <v>6.820997139799882</v>
+        <v>9.219855200171917</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.354112389576507</v>
+        <v>15.48799953983259</v>
       </c>
       <c r="F3">
-        <v>27.27768756581804</v>
+        <v>40.66007242091329</v>
       </c>
       <c r="G3">
-        <v>2.126252913787132</v>
+        <v>3.683339155719638</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.61641370414942</v>
+        <v>27.79224900545679</v>
       </c>
       <c r="J3">
-        <v>6.080836789421973</v>
+        <v>8.694431752776186</v>
       </c>
       <c r="K3">
-        <v>10.07063406435499</v>
+        <v>8.701703670363344</v>
       </c>
       <c r="L3">
-        <v>7.584328008780343</v>
+        <v>12.35868463020991</v>
       </c>
       <c r="M3">
-        <v>10.07574277770066</v>
+        <v>15.38844718724152</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.61351206943953</v>
+        <v>27.54547365894658</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48133590592198</v>
+        <v>11.61758283061694</v>
       </c>
       <c r="C4">
-        <v>6.799271182464592</v>
+        <v>9.214958096058096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.295162901022668</v>
+        <v>15.49866190033494</v>
       </c>
       <c r="F4">
-        <v>27.10489172832011</v>
+        <v>40.70872149474445</v>
       </c>
       <c r="G4">
-        <v>2.129089818762548</v>
+        <v>3.684423010456533</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.75603989649575</v>
+        <v>27.86090826929865</v>
       </c>
       <c r="J4">
-        <v>6.061760871391937</v>
+        <v>8.688922276077211</v>
       </c>
       <c r="K4">
-        <v>9.704455183880221</v>
+        <v>8.60293310515886</v>
       </c>
       <c r="L4">
-        <v>7.486611443064339</v>
+        <v>12.35789956903391</v>
       </c>
       <c r="M4">
-        <v>9.838770890903001</v>
+        <v>15.36403832197225</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.718951441123</v>
+        <v>27.6116039807283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24615564809393</v>
+        <v>11.56109986107825</v>
       </c>
       <c r="C5">
-        <v>6.790495703865485</v>
+        <v>9.212985523928769</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.271965213405053</v>
+        <v>15.50348739415921</v>
       </c>
       <c r="F5">
-        <v>27.03900454646731</v>
+        <v>40.73062679535121</v>
       </c>
       <c r="G5">
-        <v>2.130268224300566</v>
+        <v>3.684878501336054</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.8154054256285</v>
+        <v>27.88999096175391</v>
       </c>
       <c r="J5">
-        <v>6.053984334196122</v>
+        <v>8.686670386181538</v>
       </c>
       <c r="K5">
-        <v>9.550974780801001</v>
+        <v>8.56262754429917</v>
       </c>
       <c r="L5">
-        <v>7.447109569960185</v>
+        <v>12.35795846500632</v>
       </c>
       <c r="M5">
-        <v>9.741290356082782</v>
+        <v>15.35455819938709</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.7648025288787</v>
+        <v>27.63975440118954</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.20662415028766</v>
+        <v>11.55172006441608</v>
       </c>
       <c r="C6">
-        <v>6.7890432108119</v>
+        <v>9.21265938351787</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.268163352298409</v>
+        <v>15.50431770682258</v>
       </c>
       <c r="F6">
-        <v>27.02833623409926</v>
+        <v>40.73438974625205</v>
       </c>
       <c r="G6">
-        <v>2.130465259790159</v>
+        <v>3.684954970653349</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.82540990024545</v>
+        <v>27.89488678274875</v>
       </c>
       <c r="J6">
-        <v>6.052692907661711</v>
+        <v>8.686296062519611</v>
       </c>
       <c r="K6">
-        <v>9.525234542574326</v>
+        <v>8.55593295254868</v>
       </c>
       <c r="L6">
-        <v>7.440570871281849</v>
+        <v>12.35799116616831</v>
       </c>
       <c r="M6">
-        <v>9.725052988489196</v>
+        <v>15.35301240356253</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.77258713433874</v>
+        <v>27.64450132735469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.47819633807216</v>
+        <v>11.61682118577352</v>
       </c>
       <c r="C7">
-        <v>6.799152519384434</v>
+        <v>9.214931399423728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.294846696435572</v>
+        <v>15.49872503209807</v>
       </c>
       <c r="F7">
-        <v>27.10398487208316</v>
+        <v>40.70900849639759</v>
       </c>
       <c r="G7">
-        <v>2.129105620108133</v>
+        <v>3.684429097388704</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.75683062917352</v>
+        <v>27.86129602005725</v>
       </c>
       <c r="J7">
-        <v>6.061656004432326</v>
+        <v>8.68889193322395</v>
       </c>
       <c r="K7">
-        <v>9.702402437658206</v>
+        <v>8.602389689096976</v>
       </c>
       <c r="L7">
-        <v>7.486077357802916</v>
+        <v>12.35789882759741</v>
       </c>
       <c r="M7">
-        <v>9.837459736027371</v>
+        <v>15.36390857172809</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.71955826979488</v>
+        <v>27.6119787618418</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60707088935469</v>
+        <v>11.90346171635192</v>
       </c>
       <c r="C8">
-        <v>6.84445198908614</v>
+        <v>9.225158428685667</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.419805670604712</v>
+        <v>15.47826197792809</v>
       </c>
       <c r="F8">
-        <v>27.47766267778574</v>
+        <v>40.6152754812171</v>
       </c>
       <c r="G8">
-        <v>2.123300803540817</v>
+        <v>3.682229672859262</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.47606307390007</v>
+        <v>27.72275377556072</v>
       </c>
       <c r="J8">
-        <v>6.101178655005075</v>
+        <v>8.700287123995148</v>
       </c>
       <c r="K8">
-        <v>10.44662420265743</v>
+        <v>8.806769054852513</v>
       </c>
       <c r="L8">
-        <v>7.689561788251033</v>
+        <v>12.36081299238887</v>
       </c>
       <c r="M8">
-        <v>10.32509931344819</v>
+        <v>15.41607061906248</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.51116255461401</v>
+        <v>27.47901573688895</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.57356265797505</v>
+        <v>12.45853030850055</v>
       </c>
       <c r="C9">
-        <v>6.935886146565016</v>
+        <v>9.245909514757033</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.689977263913134</v>
+        <v>15.45323265986855</v>
       </c>
       <c r="F9">
-        <v>28.35553421860715</v>
+        <v>40.49722010019068</v>
       </c>
       <c r="G9">
-        <v>2.11258756860556</v>
+        <v>3.678349166561505</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.0094114664395</v>
+        <v>27.4858562987605</v>
       </c>
       <c r="J9">
-        <v>6.178487421990055</v>
+        <v>8.722401449595079</v>
       </c>
       <c r="K9">
-        <v>11.76731176645385</v>
+        <v>9.202076657309481</v>
       </c>
       <c r="L9">
-        <v>8.095275542548894</v>
+        <v>12.37836246859888</v>
       </c>
       <c r="M9">
-        <v>11.24278290472158</v>
+        <v>15.5325777509941</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.2021492703636</v>
+        <v>27.25623384211229</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87021607387976</v>
+        <v>12.85801798860294</v>
       </c>
       <c r="C10">
-        <v>7.004798419218121</v>
+        <v>9.26155698284443</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.902980965230599</v>
+        <v>15.44399547495156</v>
       </c>
       <c r="F10">
-        <v>29.08968592207041</v>
+        <v>40.4506203048925</v>
       </c>
       <c r="G10">
-        <v>2.1050941014181</v>
+        <v>3.675759168229381</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.72332835227645</v>
+        <v>27.33298287295411</v>
       </c>
       <c r="J10">
-        <v>6.235090997200669</v>
+        <v>8.738494102822544</v>
       </c>
       <c r="K10">
-        <v>12.65109887027652</v>
+        <v>9.486410889079945</v>
       </c>
       <c r="L10">
-        <v>8.394933766130492</v>
+        <v>12.39837105168649</v>
       </c>
       <c r="M10">
-        <v>11.88722997830354</v>
+        <v>15.62641959739183</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.04344314310008</v>
+        <v>27.11572556669046</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42851728660687</v>
+        <v>13.03715091912537</v>
       </c>
       <c r="C11">
-        <v>7.036564828995864</v>
+        <v>9.268757821876552</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.00284297663661</v>
+        <v>15.4417677511598</v>
       </c>
       <c r="F11">
-        <v>29.44300669925323</v>
+        <v>40.43813479186849</v>
       </c>
       <c r="G11">
-        <v>2.101759905430054</v>
+        <v>3.674637014800935</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.60688221106173</v>
+        <v>27.26802907801231</v>
       </c>
       <c r="J11">
-        <v>6.260782689061164</v>
+        <v>8.745778569144765</v>
       </c>
       <c r="K11">
-        <v>13.0341810684379</v>
+        <v>9.613890770939744</v>
       </c>
       <c r="L11">
-        <v>8.531112356212008</v>
+        <v>12.40899464744948</v>
       </c>
       <c r="M11">
-        <v>12.17288447009446</v>
+        <v>15.6708039690119</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.98784495266478</v>
+        <v>27.05684232049775</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63544274052427</v>
+        <v>13.10454851136874</v>
       </c>
       <c r="C12">
-        <v>7.048657699719667</v>
+        <v>9.271496044719123</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.04106779569831</v>
+        <v>15.44120684028235</v>
       </c>
       <c r="F12">
-        <v>29.57956911131124</v>
+        <v>40.43465852841667</v>
       </c>
       <c r="G12">
-        <v>2.100507437784527</v>
+        <v>3.674220101204906</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.56488291338971</v>
+        <v>27.24409240147603</v>
       </c>
       <c r="J12">
-        <v>6.270501694179852</v>
+        <v>8.748531525660347</v>
       </c>
       <c r="K12">
-        <v>13.17651331938003</v>
+        <v>9.661853145740542</v>
       </c>
       <c r="L12">
-        <v>8.582622653851327</v>
+        <v>12.4132340703888</v>
       </c>
       <c r="M12">
-        <v>12.27990326277964</v>
+        <v>15.68784623593355</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.96933310289149</v>
+        <v>27.03526940338324</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.59107663331064</v>
+        <v>13.09005359506535</v>
       </c>
       <c r="C13">
-        <v>7.046050392539267</v>
+        <v>9.270905819070917</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.0328174695088</v>
+        <v>15.44131509064209</v>
       </c>
       <c r="F13">
-        <v>29.55003515302809</v>
+        <v>40.43535155872585</v>
       </c>
       <c r="G13">
-        <v>2.100776739115368</v>
+        <v>3.674309534853702</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.57383284533898</v>
+        <v>27.24921824261267</v>
       </c>
       <c r="J13">
-        <v>6.268408997550202</v>
+        <v>8.747938877422857</v>
       </c>
       <c r="K13">
-        <v>13.14598108673803</v>
+        <v>9.65153810768007</v>
       </c>
       <c r="L13">
-        <v>8.571532119929712</v>
+        <v>12.41231144409351</v>
       </c>
       <c r="M13">
-        <v>12.25690713848626</v>
+        <v>15.68416557773214</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.97320436045056</v>
+        <v>27.03988326284599</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44563090680871</v>
+        <v>13.04270484822246</v>
       </c>
       <c r="C14">
-        <v>7.03755841970046</v>
+        <v>9.268982870949706</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.00597965218178</v>
+        <v>15.441715946683</v>
       </c>
       <c r="F14">
-        <v>29.45418640826333</v>
+        <v>40.43782372015402</v>
       </c>
       <c r="G14">
-        <v>2.101656664966824</v>
+        <v>3.674602554523439</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.60338412547274</v>
+        <v>27.26604656735886</v>
       </c>
       <c r="J14">
-        <v>6.261582484686165</v>
+        <v>8.746005168824452</v>
       </c>
       <c r="K14">
-        <v>13.04594560711136</v>
+        <v>9.617843146586589</v>
       </c>
       <c r="L14">
-        <v>8.535351499097068</v>
+        <v>12.40933910205222</v>
       </c>
       <c r="M14">
-        <v>12.18171244133004</v>
+        <v>15.67220139144886</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.98627011287144</v>
+        <v>27.05505297051434</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.35595772157493</v>
+        <v>13.01364376812258</v>
       </c>
       <c r="C15">
-        <v>7.032365239644562</v>
+        <v>9.26780648294411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.989593498945778</v>
+        <v>15.44199825801</v>
       </c>
       <c r="F15">
-        <v>29.39583617039845</v>
+        <v>40.43950095629265</v>
       </c>
       <c r="G15">
-        <v>2.102196944158587</v>
+        <v>3.674783081042075</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.62176208873487</v>
+        <v>27.27644034354866</v>
       </c>
       <c r="J15">
-        <v>6.257399714008669</v>
+        <v>8.744819989194726</v>
       </c>
       <c r="K15">
-        <v>12.98431504200748</v>
+        <v>9.597162200686547</v>
       </c>
       <c r="L15">
-        <v>8.513181255353668</v>
+        <v>12.40754658050292</v>
       </c>
       <c r="M15">
-        <v>12.13550148471541</v>
+        <v>15.66490329965493</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.99460902930432</v>
+        <v>27.06443928367484</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.83309876461812</v>
+        <v>12.84625353744709</v>
       </c>
       <c r="C16">
-        <v>7.002731109094775</v>
+        <v>9.261088015278146</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.896512953394145</v>
+        <v>15.44418068754511</v>
       </c>
       <c r="F16">
-        <v>29.06698378279312</v>
+        <v>40.45161150321637</v>
       </c>
       <c r="G16">
-        <v>2.105313449154033</v>
+        <v>3.67583362817593</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.73122458026999</v>
+        <v>27.33732010061118</v>
       </c>
       <c r="J16">
-        <v>6.233410689426861</v>
+        <v>8.73801729150323</v>
       </c>
       <c r="K16">
-        <v>12.62568134278071</v>
+        <v>9.478038493549693</v>
       </c>
       <c r="L16">
-        <v>8.38602810813607</v>
+        <v>12.39770719894061</v>
       </c>
       <c r="M16">
-        <v>11.86840422422287</v>
+        <v>15.62355233217731</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.04742371827019</v>
+        <v>27.11967511353596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.50429265913601</v>
+        <v>12.74285430426811</v>
       </c>
       <c r="C17">
-        <v>6.984660918290525</v>
+        <v>9.256987304966955</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.840158394901135</v>
+        <v>15.44602436356491</v>
       </c>
       <c r="F17">
-        <v>28.87019056654214</v>
+        <v>40.46127189364064</v>
       </c>
       <c r="G17">
-        <v>2.107244012869454</v>
+        <v>3.676492433130278</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.80197097639046</v>
+        <v>27.37584323339754</v>
       </c>
       <c r="J17">
-        <v>6.218678317475486</v>
+        <v>8.733834573610091</v>
       </c>
       <c r="K17">
-        <v>12.40080867966264</v>
+        <v>9.40445070504199</v>
       </c>
       <c r="L17">
-        <v>8.307960719529042</v>
+        <v>12.39205917425797</v>
       </c>
       <c r="M17">
-        <v>11.7025702955083</v>
+        <v>15.59861280027758</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.08418318563177</v>
+        <v>27.15485065307029</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31219932105034</v>
+        <v>12.68314098929423</v>
       </c>
       <c r="C18">
-        <v>6.974306515359927</v>
+        <v>9.254636500206587</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.808024921067769</v>
+        <v>15.44727070812911</v>
       </c>
       <c r="F18">
-        <v>28.75882304785348</v>
+        <v>40.46764851204494</v>
       </c>
       <c r="G18">
-        <v>2.108361484209675</v>
+        <v>3.67687663825974</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.84394320904823</v>
+        <v>27.39843266498313</v>
       </c>
       <c r="J18">
-        <v>6.210199325450012</v>
+        <v>8.731425400091968</v>
       </c>
       <c r="K18">
-        <v>12.26968343276891</v>
+        <v>9.361951838325854</v>
       </c>
       <c r="L18">
-        <v>8.263047567989947</v>
+        <v>12.38895394540178</v>
       </c>
       <c r="M18">
-        <v>11.60648392572974</v>
+        <v>15.58442835713548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.10687882024031</v>
+        <v>27.17555652551581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.2466478596691</v>
+        <v>12.6628837007153</v>
       </c>
       <c r="C19">
-        <v>6.970807306916711</v>
+        <v>9.253841914794341</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.79719372261621</v>
+        <v>15.44772466525563</v>
       </c>
       <c r="F19">
-        <v>28.72142936276014</v>
+        <v>40.46994842411682</v>
       </c>
       <c r="G19">
-        <v>2.108741071754013</v>
+        <v>3.677007631180553</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.85837055434642</v>
+        <v>27.40615524550617</v>
       </c>
       <c r="J19">
-        <v>6.207327619325029</v>
+        <v>8.730609123450243</v>
       </c>
       <c r="K19">
-        <v>12.22498052532197</v>
+        <v>9.347534076298768</v>
       </c>
       <c r="L19">
-        <v>8.247840083557602</v>
+        <v>12.38792725954094</v>
       </c>
       <c r="M19">
-        <v>11.57383238638947</v>
+        <v>15.57965351517548</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.11482521123423</v>
+        <v>27.18264853168048</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53960197015046</v>
+        <v>12.75388671879371</v>
       </c>
       <c r="C20">
-        <v>6.986580450950494</v>
+        <v>9.257423027150233</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.846128561011827</v>
+        <v>15.44580886862948</v>
       </c>
       <c r="F20">
-        <v>28.89095099036119</v>
+        <v>40.46015864569296</v>
       </c>
       <c r="G20">
-        <v>2.107037774467147</v>
+        <v>3.676421756249866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.7943064581974</v>
+        <v>27.37169767553157</v>
       </c>
       <c r="J20">
-        <v>6.220247165969666</v>
+        <v>8.734280183635619</v>
       </c>
       <c r="K20">
-        <v>12.42493151312875</v>
+        <v>9.412302488676819</v>
       </c>
       <c r="L20">
-        <v>8.316272533239644</v>
+        <v>12.39264559461839</v>
       </c>
       <c r="M20">
-        <v>11.7202969305229</v>
+        <v>15.60125114823544</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.08010829134544</v>
+        <v>27.15105711036008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48847335411176</v>
+        <v>13.05662464338292</v>
       </c>
       <c r="C21">
-        <v>7.040050960717213</v>
+        <v>9.269547381256499</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.01385160002336</v>
+        <v>15.44159054388891</v>
       </c>
       <c r="F21">
-        <v>29.48226454084435</v>
+        <v>40.43706362750071</v>
       </c>
       <c r="G21">
-        <v>2.101397939802562</v>
+        <v>3.674516270144706</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.59464624054788</v>
+        <v>27.261085770289</v>
       </c>
       <c r="J21">
-        <v>6.263587877951543</v>
+        <v>8.746573298041088</v>
       </c>
       <c r="K21">
-        <v>13.07540263277503</v>
+        <v>9.62774896036176</v>
       </c>
       <c r="L21">
-        <v>8.545980473349053</v>
+        <v>12.41020629428653</v>
       </c>
       <c r="M21">
-        <v>12.20383074399457</v>
+        <v>15.67570926106005</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.98236212470351</v>
+        <v>27.05057757906414</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08246058884814</v>
+        <v>13.25191249149335</v>
       </c>
       <c r="C22">
-        <v>7.075369865868334</v>
+        <v>9.277537697009912</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.12584577628673</v>
+        <v>15.44048066947556</v>
       </c>
       <c r="F22">
-        <v>29.88484369105199</v>
+        <v>40.42926472490579</v>
       </c>
       <c r="G22">
-        <v>2.097770659390159</v>
+        <v>3.673317663011207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.47644216337504</v>
+        <v>27.1926410183379</v>
       </c>
       <c r="J22">
-        <v>6.291855200473494</v>
+        <v>8.754575278237848</v>
       </c>
       <c r="K22">
-        <v>13.48459696961749</v>
+        <v>9.766721693787812</v>
       </c>
       <c r="L22">
-        <v>8.695756951672665</v>
+        <v>12.42294398097692</v>
       </c>
       <c r="M22">
-        <v>12.51310544734159</v>
+        <v>15.72573661379275</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.93337286315415</v>
+        <v>26.98913403696726</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76781596998396</v>
+        <v>13.14793858050295</v>
       </c>
       <c r="C23">
-        <v>7.056484088219495</v>
+        <v>9.273267202005353</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.06586050335734</v>
+        <v>15.44092275263982</v>
       </c>
       <c r="F23">
-        <v>29.66851050569235</v>
+        <v>40.43276021009707</v>
       </c>
       <c r="G23">
-        <v>2.099701449380531</v>
+        <v>3.673953118232052</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.5383611011366</v>
+        <v>27.22881930195222</v>
       </c>
       <c r="J23">
-        <v>6.276774266537258</v>
+        <v>8.750307528867989</v>
       </c>
       <c r="K23">
-        <v>13.26765983701445</v>
+        <v>9.692730823759147</v>
       </c>
       <c r="L23">
-        <v>8.615862227571006</v>
+        <v>12.41603107371713</v>
       </c>
       <c r="M23">
-        <v>12.3486777477243</v>
+        <v>15.69891421943533</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.95810352369341</v>
+        <v>27.02154066370816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.52364816012773</v>
+        <v>12.74889979325324</v>
       </c>
       <c r="C24">
-        <v>6.985712523376907</v>
+        <v>9.257226016103491</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.843428620594192</v>
+        <v>15.44590571321912</v>
       </c>
       <c r="F24">
-        <v>28.88155968373126</v>
+        <v>40.46065938226752</v>
       </c>
       <c r="G24">
-        <v>2.107130991241597</v>
+        <v>3.676453692290326</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.79776754968533</v>
+        <v>27.373570505525</v>
       </c>
       <c r="J24">
-        <v>6.219537917960094</v>
+        <v>8.7340787372496</v>
       </c>
       <c r="K24">
-        <v>12.41403131993214</v>
+        <v>9.408753292847136</v>
       </c>
       <c r="L24">
-        <v>8.312514856442927</v>
+        <v>12.39238003181439</v>
       </c>
       <c r="M24">
-        <v>11.71228503754008</v>
+        <v>15.60005787192413</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.0819456970435</v>
+        <v>27.15277066660309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06778000906861</v>
+        <v>12.30954953418382</v>
       </c>
       <c r="C25">
-        <v>6.910857947972058</v>
+        <v>9.240223611044316</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.614278170590575</v>
+        <v>15.45839245937907</v>
       </c>
       <c r="F25">
-        <v>28.10239969784425</v>
+        <v>40.52211025480106</v>
       </c>
       <c r="G25">
-        <v>2.115417151802633</v>
+        <v>3.679352917194811</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.12611931577656</v>
+        <v>27.54622273776796</v>
       </c>
       <c r="J25">
-        <v>6.157602022679195</v>
+        <v>8.716445115958006</v>
       </c>
       <c r="K25">
-        <v>11.42512895911</v>
+        <v>9.096013769689423</v>
       </c>
       <c r="L25">
-        <v>7.985068193318849</v>
+        <v>12.37235766465144</v>
       </c>
       <c r="M25">
-        <v>10.99935293963911</v>
+        <v>15.4995797558228</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.27432024850721</v>
+        <v>27.31243557639755</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.98080691254106</v>
+        <v>12.89611544693019</v>
       </c>
       <c r="C2">
-        <v>9.227977367057209</v>
+        <v>6.856897074152422</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.47374107811253</v>
+        <v>9.45539119335449</v>
       </c>
       <c r="F2">
-        <v>40.59432522638034</v>
+        <v>27.58867813875937</v>
       </c>
       <c r="G2">
-        <v>3.68166311293257</v>
+        <v>2.121774423981507</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.68757089880922</v>
+        <v>17.40547859564436</v>
       </c>
       <c r="J2">
-        <v>8.703359469589422</v>
+        <v>6.111876894546484</v>
       </c>
       <c r="K2">
-        <v>8.861881177781523</v>
+        <v>10.63898347824745</v>
       </c>
       <c r="L2">
-        <v>12.36240689968064</v>
+        <v>7.745244373571595</v>
       </c>
       <c r="M2">
-        <v>15.43118098463983</v>
+        <v>10.45487839501974</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.44555715225936</v>
+        <v>17.4611750323632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.75606587258971</v>
+        <v>12.03899526928742</v>
       </c>
       <c r="C3">
-        <v>9.219855200171917</v>
+        <v>6.820997139799875</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.48799953983259</v>
+        <v>9.354112389576505</v>
       </c>
       <c r="F3">
-        <v>40.66007242091329</v>
+        <v>27.27768756581816</v>
       </c>
       <c r="G3">
-        <v>3.683339155719638</v>
+        <v>2.126252913787131</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.79224900545679</v>
+        <v>17.61641370414948</v>
       </c>
       <c r="J3">
-        <v>8.694431752776186</v>
+        <v>6.080836789421973</v>
       </c>
       <c r="K3">
-        <v>8.701703670363344</v>
+        <v>10.07063406435499</v>
       </c>
       <c r="L3">
-        <v>12.35868463020991</v>
+        <v>7.584328008780303</v>
       </c>
       <c r="M3">
-        <v>15.38844718724152</v>
+        <v>10.07574277770066</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.54547365894658</v>
+        <v>17.61351206943957</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.61758283061694</v>
+        <v>11.48133590592196</v>
       </c>
       <c r="C4">
-        <v>9.214958096058096</v>
+        <v>6.799271182464718</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.49866190033494</v>
+        <v>9.295162901022893</v>
       </c>
       <c r="F4">
-        <v>40.70872149474445</v>
+        <v>27.10489172832031</v>
       </c>
       <c r="G4">
-        <v>3.684423010456533</v>
+        <v>2.129089818762549</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.86090826929865</v>
+        <v>17.75603989649589</v>
       </c>
       <c r="J4">
-        <v>8.688922276077211</v>
+        <v>6.061760871391934</v>
       </c>
       <c r="K4">
-        <v>8.60293310515886</v>
+        <v>9.704455183880208</v>
       </c>
       <c r="L4">
-        <v>12.35789956903391</v>
+        <v>7.486611443064382</v>
       </c>
       <c r="M4">
-        <v>15.36403832197225</v>
+        <v>9.838770890903088</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.6116039807283</v>
+        <v>17.7189514411231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56109986107825</v>
+        <v>11.24615564809392</v>
       </c>
       <c r="C5">
-        <v>9.212985523928769</v>
+        <v>6.790495703865343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.50348739415921</v>
+        <v>9.271965213405005</v>
       </c>
       <c r="F5">
-        <v>40.73062679535121</v>
+        <v>27.03900454646742</v>
       </c>
       <c r="G5">
-        <v>3.684878501336054</v>
+        <v>2.130268224300299</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.88999096175391</v>
+        <v>17.81540542562857</v>
       </c>
       <c r="J5">
-        <v>8.686670386181538</v>
+        <v>6.053984334196154</v>
       </c>
       <c r="K5">
-        <v>8.56262754429917</v>
+        <v>9.550974780800949</v>
       </c>
       <c r="L5">
-        <v>12.35795846500632</v>
+        <v>7.447109569960157</v>
       </c>
       <c r="M5">
-        <v>15.35455819938709</v>
+        <v>9.741290356082807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.63975440118954</v>
+        <v>17.76480252887884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.55172006441608</v>
+        <v>11.20662415028763</v>
       </c>
       <c r="C6">
-        <v>9.21265938351787</v>
+        <v>6.789043210811887</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.50431770682258</v>
+        <v>9.268163352298412</v>
       </c>
       <c r="F6">
-        <v>40.73438974625205</v>
+        <v>27.02833623409939</v>
       </c>
       <c r="G6">
-        <v>3.684954970653349</v>
+        <v>2.130465259790292</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.89488678274875</v>
+        <v>17.82540990024556</v>
       </c>
       <c r="J6">
-        <v>8.686296062519611</v>
+        <v>6.052692907661773</v>
       </c>
       <c r="K6">
-        <v>8.55593295254868</v>
+        <v>9.525234542574301</v>
       </c>
       <c r="L6">
-        <v>12.35799116616831</v>
+        <v>7.440570871281866</v>
       </c>
       <c r="M6">
-        <v>15.35301240356253</v>
+        <v>9.725052988489237</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.64450132735469</v>
+        <v>17.77258713433888</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61682118577352</v>
+        <v>11.47819633807216</v>
       </c>
       <c r="C7">
-        <v>9.214931399423728</v>
+        <v>6.799152519384295</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.49872503209807</v>
+        <v>9.294846696435465</v>
       </c>
       <c r="F7">
-        <v>40.70900849639759</v>
+        <v>27.10398487208312</v>
       </c>
       <c r="G7">
-        <v>3.684429097388704</v>
+        <v>2.129105620108133</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.86129602005725</v>
+        <v>17.7568306291735</v>
       </c>
       <c r="J7">
-        <v>8.68889193322395</v>
+        <v>6.061656004432258</v>
       </c>
       <c r="K7">
-        <v>8.602389689096976</v>
+        <v>9.702402437658158</v>
       </c>
       <c r="L7">
-        <v>12.35789882759741</v>
+        <v>7.486077357802862</v>
       </c>
       <c r="M7">
-        <v>15.36390857172809</v>
+        <v>9.83745973602735</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.6119787618418</v>
+        <v>17.71955826979488</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.90346171635192</v>
+        <v>12.60707088935469</v>
       </c>
       <c r="C8">
-        <v>9.225158428685667</v>
+        <v>6.844451989085878</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.47826197792809</v>
+        <v>9.419805670604655</v>
       </c>
       <c r="F8">
-        <v>40.6152754812171</v>
+        <v>27.47766267778592</v>
       </c>
       <c r="G8">
-        <v>3.682229672859262</v>
+        <v>2.123300803541086</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.72275377556072</v>
+        <v>17.47606307390021</v>
       </c>
       <c r="J8">
-        <v>8.700287123995148</v>
+        <v>6.101178655005106</v>
       </c>
       <c r="K8">
-        <v>8.806769054852513</v>
+        <v>10.44662420265737</v>
       </c>
       <c r="L8">
-        <v>12.36081299238887</v>
+        <v>7.689561788251048</v>
       </c>
       <c r="M8">
-        <v>15.41607061906248</v>
+        <v>10.32509931344821</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.47901573688895</v>
+        <v>17.51116255461421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.45853030850055</v>
+        <v>14.5735626579751</v>
       </c>
       <c r="C9">
-        <v>9.245909514757033</v>
+        <v>6.935886146565004</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.45323265986855</v>
+        <v>9.689977263913237</v>
       </c>
       <c r="F9">
-        <v>40.49722010019068</v>
+        <v>28.35553421860726</v>
       </c>
       <c r="G9">
-        <v>3.678349166561505</v>
+        <v>2.112587568605562</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.4858562987605</v>
+        <v>17.00941146643964</v>
       </c>
       <c r="J9">
-        <v>8.722401449595079</v>
+        <v>6.178487421990178</v>
       </c>
       <c r="K9">
-        <v>9.202076657309481</v>
+        <v>11.76731176645385</v>
       </c>
       <c r="L9">
-        <v>12.37836246859888</v>
+        <v>8.095275542548961</v>
       </c>
       <c r="M9">
-        <v>15.5325777509941</v>
+        <v>11.2427829047216</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.25623384211229</v>
+        <v>17.20214927036377</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.85801798860294</v>
+        <v>15.87021607387979</v>
       </c>
       <c r="C10">
-        <v>9.26155698284443</v>
+        <v>7.004798419218236</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.44399547495156</v>
+        <v>9.902980965230554</v>
       </c>
       <c r="F10">
-        <v>40.4506203048925</v>
+        <v>29.0896859220703</v>
       </c>
       <c r="G10">
-        <v>3.675759168229381</v>
+        <v>2.105094101417832</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.33298287295411</v>
+        <v>16.72332835227638</v>
       </c>
       <c r="J10">
-        <v>8.738494102822544</v>
+        <v>6.23509099720073</v>
       </c>
       <c r="K10">
-        <v>9.486410889079945</v>
+        <v>12.65109887027652</v>
       </c>
       <c r="L10">
-        <v>12.39837105168649</v>
+        <v>8.394933766130448</v>
       </c>
       <c r="M10">
-        <v>15.62641959739183</v>
+        <v>11.88722997830352</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.11572556669046</v>
+        <v>17.04344314309999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.03715091912537</v>
+        <v>16.42851728660688</v>
       </c>
       <c r="C11">
-        <v>9.268757821876552</v>
+        <v>7.036564828995726</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.4417677511598</v>
+        <v>10.00284297663667</v>
       </c>
       <c r="F11">
-        <v>40.43813479186849</v>
+        <v>29.44300669925336</v>
       </c>
       <c r="G11">
-        <v>3.674637014800935</v>
+        <v>2.101759905430054</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.26802907801231</v>
+        <v>16.60688221106172</v>
       </c>
       <c r="J11">
-        <v>8.745778569144765</v>
+        <v>6.260782689061156</v>
       </c>
       <c r="K11">
-        <v>9.613890770939744</v>
+        <v>13.03418106843787</v>
       </c>
       <c r="L11">
-        <v>12.40899464744948</v>
+        <v>8.531112356212036</v>
       </c>
       <c r="M11">
-        <v>15.6708039690119</v>
+        <v>12.17288447009448</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.05684232049775</v>
+        <v>16.98784495266484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.10454851136874</v>
+        <v>16.63544274052428</v>
       </c>
       <c r="C12">
-        <v>9.271496044719123</v>
+        <v>7.048657699719644</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.44120684028235</v>
+        <v>10.04106779569832</v>
       </c>
       <c r="F12">
-        <v>40.43465852841667</v>
+        <v>29.57956911131128</v>
       </c>
       <c r="G12">
-        <v>3.674220101204906</v>
+        <v>2.100507437784663</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.24409240147603</v>
+        <v>16.56488291338981</v>
       </c>
       <c r="J12">
-        <v>8.748531525660347</v>
+        <v>6.270501694179881</v>
       </c>
       <c r="K12">
-        <v>9.661853145740542</v>
+        <v>13.17651331938004</v>
       </c>
       <c r="L12">
-        <v>12.4132340703888</v>
+        <v>8.582622653851264</v>
       </c>
       <c r="M12">
-        <v>15.68784623593355</v>
+        <v>12.27990326277963</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.03526940338324</v>
+        <v>16.96933310289158</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.09005359506535</v>
+        <v>16.59107663331065</v>
       </c>
       <c r="C13">
-        <v>9.270905819070917</v>
+        <v>7.046050392539387</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.44131509064209</v>
+        <v>10.03281746950893</v>
       </c>
       <c r="F13">
-        <v>40.43535155872585</v>
+        <v>29.55003515302815</v>
       </c>
       <c r="G13">
-        <v>3.674309534853702</v>
+        <v>2.10077673911537</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.24921824261267</v>
+        <v>16.57383284533893</v>
       </c>
       <c r="J13">
-        <v>8.747938877422857</v>
+        <v>6.268408997550266</v>
       </c>
       <c r="K13">
-        <v>9.65153810768007</v>
+        <v>13.14598108673809</v>
       </c>
       <c r="L13">
-        <v>12.41231144409351</v>
+        <v>8.571532119929733</v>
       </c>
       <c r="M13">
-        <v>15.68416557773214</v>
+        <v>12.25690713848627</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.03988326284599</v>
+        <v>16.97320436045049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.04270484822246</v>
+        <v>16.44563090680877</v>
       </c>
       <c r="C14">
-        <v>9.268982870949706</v>
+        <v>7.037558419700065</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.441715946683</v>
+        <v>10.00597965218166</v>
       </c>
       <c r="F14">
-        <v>40.43782372015402</v>
+        <v>29.45418640826332</v>
       </c>
       <c r="G14">
-        <v>3.674602554523439</v>
+        <v>2.101656664966821</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.26604656735886</v>
+        <v>16.60338412547268</v>
       </c>
       <c r="J14">
-        <v>8.746005168824452</v>
+        <v>6.261582484686102</v>
       </c>
       <c r="K14">
-        <v>9.617843146586589</v>
+        <v>13.04594560711133</v>
       </c>
       <c r="L14">
-        <v>12.40933910205222</v>
+        <v>8.535351499097018</v>
       </c>
       <c r="M14">
-        <v>15.67220139144886</v>
+        <v>12.18171244133</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.05505297051434</v>
+        <v>16.98627011287149</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.01364376812258</v>
+        <v>16.35595772157493</v>
       </c>
       <c r="C15">
-        <v>9.26780648294411</v>
+        <v>7.032365239644807</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.44199825801</v>
+        <v>9.989593498945815</v>
       </c>
       <c r="F15">
-        <v>40.43950095629265</v>
+        <v>29.39583617039846</v>
       </c>
       <c r="G15">
-        <v>3.674783081042075</v>
+        <v>2.102196944158988</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.27644034354866</v>
+        <v>16.62176208873484</v>
       </c>
       <c r="J15">
-        <v>8.744819989194726</v>
+        <v>6.257399714008634</v>
       </c>
       <c r="K15">
-        <v>9.597162200686547</v>
+        <v>12.98431504200753</v>
       </c>
       <c r="L15">
-        <v>12.40754658050292</v>
+        <v>8.513181255353681</v>
       </c>
       <c r="M15">
-        <v>15.66490329965493</v>
+        <v>12.13550148471541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.06443928367484</v>
+        <v>16.99460902930423</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.84625353744709</v>
+        <v>15.83309876461815</v>
       </c>
       <c r="C16">
-        <v>9.261088015278146</v>
+        <v>7.002731109094511</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.44418068754511</v>
+        <v>9.896512953394105</v>
       </c>
       <c r="F16">
-        <v>40.45161150321637</v>
+        <v>29.06698378279311</v>
       </c>
       <c r="G16">
-        <v>3.67583362817593</v>
+        <v>2.105313449153766</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.33732010061118</v>
+        <v>16.73122458026993</v>
       </c>
       <c r="J16">
-        <v>8.73801729150323</v>
+        <v>6.233410689426857</v>
       </c>
       <c r="K16">
-        <v>9.478038493549693</v>
+        <v>12.62568134278067</v>
       </c>
       <c r="L16">
-        <v>12.39770719894061</v>
+        <v>8.386028108136081</v>
       </c>
       <c r="M16">
-        <v>15.62355233217731</v>
+        <v>11.86840422422287</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.11967511353596</v>
+        <v>17.04742371827023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.74285430426811</v>
+        <v>15.50429265913606</v>
       </c>
       <c r="C17">
-        <v>9.256987304966955</v>
+        <v>6.984660918290662</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.44602436356491</v>
+        <v>9.840158394901225</v>
       </c>
       <c r="F17">
-        <v>40.46127189364064</v>
+        <v>28.87019056654211</v>
       </c>
       <c r="G17">
-        <v>3.676492433130278</v>
+        <v>2.107244012869453</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.37584323339754</v>
+        <v>16.80197097639031</v>
       </c>
       <c r="J17">
-        <v>8.733834573610091</v>
+        <v>6.218678317475386</v>
       </c>
       <c r="K17">
-        <v>9.40445070504199</v>
+        <v>12.4008086796627</v>
       </c>
       <c r="L17">
-        <v>12.39205917425797</v>
+        <v>8.307960719529069</v>
       </c>
       <c r="M17">
-        <v>15.59861280027758</v>
+        <v>11.70257029550831</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.15485065307029</v>
+        <v>17.08418318563158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.68314098929423</v>
+        <v>15.31219932105035</v>
       </c>
       <c r="C18">
-        <v>9.254636500206587</v>
+        <v>6.974306515359671</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.44727070812911</v>
+        <v>9.808024921067716</v>
       </c>
       <c r="F18">
-        <v>40.46764851204494</v>
+        <v>28.7588230478535</v>
       </c>
       <c r="G18">
-        <v>3.67687663825974</v>
+        <v>2.108361484209943</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.39843266498313</v>
+        <v>16.84394320904819</v>
       </c>
       <c r="J18">
-        <v>8.731425400091968</v>
+        <v>6.210199325449882</v>
       </c>
       <c r="K18">
-        <v>9.361951838325854</v>
+        <v>12.2696834327689</v>
       </c>
       <c r="L18">
-        <v>12.38895394540178</v>
+        <v>8.26304756798997</v>
       </c>
       <c r="M18">
-        <v>15.58442835713548</v>
+        <v>11.60648392572973</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.17555652551581</v>
+        <v>17.10687882024026</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.6628837007153</v>
+        <v>15.24664785966914</v>
       </c>
       <c r="C19">
-        <v>9.253841914794341</v>
+        <v>6.97080730691683</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.44772466525563</v>
+        <v>9.797193722616214</v>
       </c>
       <c r="F19">
-        <v>40.46994842411682</v>
+        <v>28.72142936276012</v>
       </c>
       <c r="G19">
-        <v>3.677007631180553</v>
+        <v>2.108741071753879</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.40615524550617</v>
+        <v>16.85837055434631</v>
       </c>
       <c r="J19">
-        <v>8.730609123450243</v>
+        <v>6.207327619324963</v>
       </c>
       <c r="K19">
-        <v>9.347534076298768</v>
+        <v>12.22498052532203</v>
       </c>
       <c r="L19">
-        <v>12.38792725954094</v>
+        <v>8.247840083557598</v>
       </c>
       <c r="M19">
-        <v>15.57965351517548</v>
+        <v>11.57383238638944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.18264853168048</v>
+        <v>17.11482521123413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.75388671879371</v>
+        <v>15.53960197015051</v>
       </c>
       <c r="C20">
-        <v>9.257423027150233</v>
+        <v>6.986580450950489</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.44580886862948</v>
+        <v>9.846128561011923</v>
       </c>
       <c r="F20">
-        <v>40.46015864569296</v>
+        <v>28.89095099036108</v>
       </c>
       <c r="G20">
-        <v>3.676421756249866</v>
+        <v>2.107037774467415</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.37169767553157</v>
+        <v>16.79430645819725</v>
       </c>
       <c r="J20">
-        <v>8.734280183635619</v>
+        <v>6.220247165969636</v>
       </c>
       <c r="K20">
-        <v>9.412302488676819</v>
+        <v>12.42493151312884</v>
       </c>
       <c r="L20">
-        <v>12.39264559461839</v>
+        <v>8.316272533239692</v>
       </c>
       <c r="M20">
-        <v>15.60125114823544</v>
+        <v>11.72029693052291</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.15105711036008</v>
+        <v>17.08010829134523</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.05662464338292</v>
+        <v>16.4884733541118</v>
       </c>
       <c r="C21">
-        <v>9.269547381256499</v>
+        <v>7.040050960717206</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.44159054388891</v>
+        <v>10.01385160002335</v>
       </c>
       <c r="F21">
-        <v>40.43706362750071</v>
+        <v>29.48226454084447</v>
       </c>
       <c r="G21">
-        <v>3.674516270144706</v>
+        <v>2.101397939802696</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.261085770289</v>
+        <v>16.59464624054805</v>
       </c>
       <c r="J21">
-        <v>8.746573298041088</v>
+        <v>6.263587877951536</v>
       </c>
       <c r="K21">
-        <v>9.62774896036176</v>
+        <v>13.07540263277506</v>
       </c>
       <c r="L21">
-        <v>12.41020629428653</v>
+        <v>8.545980473349038</v>
       </c>
       <c r="M21">
-        <v>15.67570926106005</v>
+        <v>12.20383074399457</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.05057757906414</v>
+        <v>16.98236212470368</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.25191249149335</v>
+        <v>17.08246058884821</v>
       </c>
       <c r="C22">
-        <v>9.277537697009912</v>
+        <v>7.075369865868334</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.44048066947556</v>
+        <v>10.12584577628678</v>
       </c>
       <c r="F22">
-        <v>40.42926472490579</v>
+        <v>29.88484369105195</v>
       </c>
       <c r="G22">
-        <v>3.673317663011207</v>
+        <v>2.097770659389891</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.1926410183379</v>
+        <v>16.47644216337488</v>
       </c>
       <c r="J22">
-        <v>8.754575278237848</v>
+        <v>6.291855200473432</v>
       </c>
       <c r="K22">
-        <v>9.766721693787812</v>
+        <v>13.48459696961754</v>
       </c>
       <c r="L22">
-        <v>12.42294398097692</v>
+        <v>8.695756951672697</v>
       </c>
       <c r="M22">
-        <v>15.72573661379275</v>
+        <v>12.51310544734157</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.98913403696726</v>
+        <v>16.93337286315397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.14793858050295</v>
+        <v>16.76781596998395</v>
       </c>
       <c r="C23">
-        <v>9.273267202005353</v>
+        <v>7.056484088219483</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.44092275263982</v>
+        <v>10.06586050335738</v>
       </c>
       <c r="F23">
-        <v>40.43276021009707</v>
+        <v>29.6685105056924</v>
       </c>
       <c r="G23">
-        <v>3.673953118232052</v>
+        <v>2.099701449380398</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.22881930195222</v>
+        <v>16.53836110113658</v>
       </c>
       <c r="J23">
-        <v>8.750307528867989</v>
+        <v>6.276774266537253</v>
       </c>
       <c r="K23">
-        <v>9.692730823759147</v>
+        <v>13.26765983701444</v>
       </c>
       <c r="L23">
-        <v>12.41603107371713</v>
+        <v>8.615862227571041</v>
       </c>
       <c r="M23">
-        <v>15.69891421943533</v>
+        <v>12.3486777477243</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.02154066370816</v>
+        <v>16.95810352369341</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.74889979325324</v>
+        <v>15.52364816012775</v>
       </c>
       <c r="C24">
-        <v>9.257226016103491</v>
+        <v>6.985712523376883</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.44590571321912</v>
+        <v>9.84342862059424</v>
       </c>
       <c r="F24">
-        <v>40.46065938226752</v>
+        <v>28.88155968373138</v>
       </c>
       <c r="G24">
-        <v>3.676453692290326</v>
+        <v>2.107130991241597</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.373570505525</v>
+        <v>16.79776754968539</v>
       </c>
       <c r="J24">
-        <v>8.7340787372496</v>
+        <v>6.219537917960053</v>
       </c>
       <c r="K24">
-        <v>9.408753292847136</v>
+        <v>12.41403131993211</v>
       </c>
       <c r="L24">
-        <v>12.39238003181439</v>
+        <v>8.312514856442959</v>
       </c>
       <c r="M24">
-        <v>15.60005787192413</v>
+        <v>11.71228503754008</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.15277066660309</v>
+        <v>17.08194569704357</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.30954953418382</v>
+        <v>14.06778000906861</v>
       </c>
       <c r="C25">
-        <v>9.240223611044316</v>
+        <v>6.910857947972049</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.45839245937907</v>
+        <v>9.614278170590678</v>
       </c>
       <c r="F25">
-        <v>40.52211025480106</v>
+        <v>28.10239969784435</v>
       </c>
       <c r="G25">
-        <v>3.679352917194811</v>
+        <v>2.115417151802767</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.54622273776796</v>
+        <v>17.1261193157765</v>
       </c>
       <c r="J25">
-        <v>8.716445115958006</v>
+        <v>6.157602022679092</v>
       </c>
       <c r="K25">
-        <v>9.096013769689423</v>
+        <v>11.42512895911</v>
       </c>
       <c r="L25">
-        <v>12.37235766465144</v>
+        <v>7.985068193318884</v>
       </c>
       <c r="M25">
-        <v>15.4995797558228</v>
+        <v>10.99935293963913</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.31243557639755</v>
+        <v>17.2743202485071</v>
       </c>
     </row>
   </sheetData>
